--- a/Diverses/ZH_Sozialdetektive_texte.xlsx
+++ b/Diverses/ZH_Sozialdetektive_texte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="847">
   <si>
     <t>Gemeinde_Nr</t>
   </si>
@@ -2061,6 +2061,495 @@
   </si>
   <si>
     <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
+  </si>
+  <si>
+    <t>Aeugst am Albis hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 70,3 Prozent angenommen. Aeugst am Albis hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Affoltern am Albis hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 100 Prozent angenommen. Affoltern am Albis hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Bonstetten hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 61,3 Prozent angenommen. Bonstetten hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>59,5 Prozent der Stimmbürgerinnen und Stimmbürger von Hausen am Albis haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Hausen am Albis hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Hedingen: 84,9 Prozent haben die Vorlage abgelehnt. Hedingen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Kappel am Albis hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 98,4 Prozent angenommen. Kappel am Albis hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Knonau: 53,5 Prozent haben die Vorlage abgelehnt. Knonau hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Maschwanden. 59,9 Prozent haben sie verworfen. Maschwanden hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Mettmenstetten. 68 Prozent haben sie verworfen. Mettmenstetten hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Obfelden. 70,9 Prozent haben sie verworfen. Obfelden hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 65,7 Prozent Ja hat sich Ottenbach für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Ottenbach hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Rifferswil: 78,9 Prozent haben die Vorlage abgelehnt. Rifferswil hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>76,9 Prozent der Stimmbürgerinnen und Stimmbürger von Stallikon haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Stallikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wettswil am Albis hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 52,3 Prozent angenommen. Wettswil am Albis hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Adlikon. 92,5 Prozent haben sie verworfen. Adlikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 69,2 Prozent Ja hat sich Benken ZH für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Benken ZH hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Berg am Irchel hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 59,4 Prozent angenommen. Berg am Irchel hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Buch am Irchel. 71,5 Prozent haben sie verworfen. Buch am Irchel hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Dachsen. 68,4 Prozent haben sie verworfen. Dachsen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Dorf. 72,8 Prozent haben sie verworfen. Dorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Feuerthalen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 58,8 Prozent angenommen. Feuerthalen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Flaach hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 50,9 Prozent abgelehnt. Flaach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Flurlingen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 80,3 Prozent angenommen. Flurlingen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Andelfingen: 53,8 Prozent haben die Vorlage abgelehnt. Andelfingen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Henggart hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 66,1 Prozent angenommen. Henggart hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Humlikon. 64,4 Prozent haben sie verworfen. Humlikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Kleinandelfingen: 61 Prozent haben die Vorlage abgelehnt. Kleinandelfingen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Laufen-Uhwiesen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 63,6 Prozent abgelehnt. Laufen-Uhwiesen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 64,6 Prozent Ja hat sich Marthalen für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Marthalen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 59,4 Prozent Ja hat sich Ossingen für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Ossingen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Rheinau hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 78,5 Prozent angenommen. Rheinau hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Thalheim an der Thur hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 86 Prozent abgelehnt. Thalheim an der Thur hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>75,4 Prozent der Stimmbürgerinnen und Stimmbürger von Trüllikon haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Trüllikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>87 Prozent der Stimmbürgerinnen und Stimmbürger von Truttikon haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Truttikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Volken hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 60,3 Prozent angenommen. Volken hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>61 Prozent der Stimmbürgerinnen und Stimmbürger von Bachenbülach haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Bachenbülach hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Bassersdorf. 58,6 Prozent haben sie verworfen. Bassersdorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 67,3 Prozent Ja hat sich Bülach für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Bülach hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Dietlikon. 62,1 Prozent haben sie verworfen. Dietlikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 52,1 Prozent Ja hat sich Eglisau für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Eglisau hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Embrach hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 70,2 Prozent abgelehnt. Embrach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Freienstein-Teufen: 51,3 Prozent haben die Vorlage abgelehnt. Freienstein-Teufen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>67,4 Prozent der Stimmbürgerinnen und Stimmbürger von Glattfelden haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Glattfelden hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>71,9 Prozent der Stimmbürgerinnen und Stimmbürger von Hochfelden haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Hochfelden hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>75,8 Prozent der Stimmbürgerinnen und Stimmbürger von Höri haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Höri hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>64,4 Prozent der Stimmbürgerinnen und Stimmbürger von Hüntwangen haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Hüntwangen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Kloten: 50,6 Prozent haben die Vorlage abgelehnt. Kloten hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Lufingen. 58,1 Prozent haben sie verworfen. Lufingen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Nürensdorf. 85,1 Prozent haben sie verworfen. Nürensdorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Oberembrach: 93,1 Prozent haben die Vorlage abgelehnt. Oberembrach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Opfikon hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 59,4 Prozent angenommen. Opfikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Rafz. 61,1 Prozent haben sie verworfen. Rafz hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Rorbas hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 80,2 Prozent abgelehnt. Rorbas hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wallisellen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 72,6 Prozent abgelehnt. Wallisellen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>66,3 Prozent der Stimmbürgerinnen und Stimmbürger von Wasterkingen haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Wasterkingen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>74,9 Prozent der Stimmbürgerinnen und Stimmbürger von Wil ZH haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Wil ZH hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Winkel hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 59,3 Prozent abgelehnt. Winkel hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Bachs. 69,3 Prozent haben sie verworfen. Bachs hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Boppelsen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 65,3 Prozent abgelehnt. Boppelsen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Buchs ZH hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 80,1 Prozent abgelehnt. Buchs ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Dällikon: 75,7 Prozent haben die Vorlage abgelehnt. Dällikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Dänikon hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 73 Prozent angenommen. Dänikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>65,8 Prozent der Stimmbürgerinnen und Stimmbürger von Dielsdorf haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Dielsdorf hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Hüttikon: 68,9 Prozent haben die Vorlage abgelehnt. Hüttikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Neerach. 56,4 Prozent haben sie verworfen. Neerach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Niederglatt hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 78,7 Prozent angenommen. Niederglatt hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 57,8 Prozent Ja hat sich Niederhasli für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Niederhasli hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Niederweningen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 72,6 Prozent angenommen. Niederweningen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Oberglatt: 72,2 Prozent haben die Vorlage abgelehnt. Oberglatt hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Oberweningen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 70,7 Prozent angenommen. Oberweningen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 54,5 Prozent Ja hat sich Otelfingen für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Otelfingen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>70,6 Prozent der Stimmbürgerinnen und Stimmbürger von Regensberg haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Regensberg hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Regensdorf. 59 Prozent haben sie verworfen. Regensdorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Rümlang hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 69,7 Prozent abgelehnt. Rümlang hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Schleinikon: 63,5 Prozent haben die Vorlage abgelehnt. Schleinikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Schöfflisdorf hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 75,5 Prozent abgelehnt. Schöfflisdorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Stadel: 79,2 Prozent haben die Vorlage abgelehnt. Stadel hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Steinmaur hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 74,4 Prozent angenommen. Steinmaur hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Weiach. 73,5 Prozent haben sie verworfen. Weiach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Bäretswil: 53,5 Prozent haben die Vorlage abgelehnt. Bäretswil hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Bubikon: 68,8 Prozent haben die Vorlage abgelehnt. Bubikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Dürnten hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 53,3 Prozent abgelehnt. Dürnten hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 64,7 Prozent Ja hat sich Fischenthal für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Fischenthal hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Gossau ZH. 82,8 Prozent haben sie verworfen. Gossau ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>89,1 Prozent der Stimmbürgerinnen und Stimmbürger von Grüningen haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Grüningen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>81,5 Prozent der Stimmbürgerinnen und Stimmbürger von Hinwil haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Hinwil hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>54,3 Prozent der Stimmbürgerinnen und Stimmbürger von Rüti ZH haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Rüti ZH hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>57,7 Prozent der Stimmbürgerinnen und Stimmbürger von Seegräben haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Seegräben hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wald ZH hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 71,7 Prozent abgelehnt. Wald ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Wetzikon ZH. 56,4 Prozent haben sie verworfen. Wetzikon ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Adliswil: 58,6 Prozent haben die Vorlage abgelehnt. Adliswil hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Kilchberg ZH hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 62,8 Prozent abgelehnt. Kilchberg ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Langnau am Albis hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 56,9 Prozent angenommen. Langnau am Albis hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>75,1 Prozent der Stimmbürgerinnen und Stimmbürger von Oberrieden haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Oberrieden hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 62,5 Prozent Ja hat sich Richterswil für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Richterswil hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Rüschlikon: 93,6 Prozent haben die Vorlage abgelehnt. Rüschlikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 77,1 Prozent Ja hat sich Thalwil für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Thalwil hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 62,9 Prozent Ja hat sich Erlenbach ZH für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Erlenbach ZH hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Herrliberg hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 99,1 Prozent angenommen. Herrliberg hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>57,4 Prozent der Stimmbürgerinnen und Stimmbürger von Hombrechtikon haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Hombrechtikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Küsnacht ZH: 71,1 Prozent haben die Vorlage abgelehnt. Küsnacht ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Männedorf: 58,9 Prozent haben die Vorlage abgelehnt. Männedorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Meilen. 92,1 Prozent haben sie verworfen. Meilen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Oetwil am See hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 66,8 Prozent angenommen. Oetwil am See hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Stäfa hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 84,5 Prozent angenommen. Stäfa hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Uetikon am See. 57,1 Prozent haben sie verworfen. Uetikon am See hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Zumikon: 75,5 Prozent haben die Vorlage abgelehnt. Zumikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Zollikon hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 68,5 Prozent angenommen. Zollikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Fehraltorf hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 54,2 Prozent abgelehnt. Fehraltorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Hittnau. 53,7 Prozent haben sie verworfen. Hittnau hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Lindau: 72,6 Prozent haben die Vorlage abgelehnt. Lindau hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Pfäffikon hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 85,7 Prozent abgelehnt. Pfäffikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 56,1 Prozent Ja hat sich Russikon für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Russikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Weisslingen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 91,1 Prozent angenommen. Weisslingen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wila hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 96,2 Prozent abgelehnt. Wila hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 97,5 Prozent Ja hat sich Wildberg für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Wildberg hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 90,9 Prozent Ja hat sich Dübendorf für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Dübendorf hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Egg. 77 Prozent haben sie verworfen. Egg hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Fällanden. 59,8 Prozent haben sie verworfen. Fällanden hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Greifensee. 86 Prozent haben sie verworfen. Greifensee hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Maur: 59,6 Prozent haben die Vorlage abgelehnt. Maur hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Mönchaltorf: 75,1 Prozent haben die Vorlage abgelehnt. Mönchaltorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Schwerzenbach. 58,5 Prozent haben sie verworfen. Schwerzenbach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Uster: 76,8 Prozent haben die Vorlage abgelehnt. Uster hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>75,4 Prozent der Stimmbürgerinnen und Stimmbürger von Volketswil haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Volketswil hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Wangen-Brüttisellen: 75,2 Prozent haben die Vorlage abgelehnt. Wangen-Brüttisellen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>72,7 Prozent der Stimmbürgerinnen und Stimmbürger von Altikon haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Altikon hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Brütten hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 75,7 Prozent angenommen. Brütten hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Dägerlen. 63,1 Prozent haben sie verworfen. Dägerlen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Dättlikon. 50,6 Prozent haben sie verworfen. Dättlikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>63,5 Prozent der Stimmbürgerinnen und Stimmbürger von Dinhard haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Dinhard hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Ellikon an der Thur. 51 Prozent haben sie verworfen. Ellikon an der Thur hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Elsau hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 68,8 Prozent abgelehnt. Elsau hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Hagenbuch hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 69,2 Prozent abgelehnt. Hagenbuch hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 74,3 Prozent Ja hat sich Hettlingen für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Hettlingen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Neftenbach hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 96,1 Prozent abgelehnt. Neftenbach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Pfungen: 99,9 Prozent haben die Vorlage abgelehnt. Pfungen hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Rickenbach ZH hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 64,6 Prozent abgelehnt. Rickenbach ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Schlatt ZH. 54,5 Prozent haben sie verworfen. Schlatt ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Seuzach. 93,9 Prozent haben sie verworfen. Seuzach hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Turbenthal hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 90,1 Prozent angenommen. Turbenthal hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Winterthur hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 51,3 Prozent angenommen. Winterthur hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Zell ZH. 61,9 Prozent haben sie verworfen. Zell ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>79,9 Prozent der Stimmbürgerinnen und Stimmbürger von Aesch ZH haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Aesch ZH hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Birmensdorf ZH hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 55 Prozent abgelehnt. Birmensdorf ZH hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Dietikon. 68,4 Prozent haben sie verworfen. Dietikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Geroldswil hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 81,7 Prozent angenommen. Geroldswil hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 94,9 Prozent Ja hat sich Oberengstringen für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Oberengstringen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>56,6 Prozent der Stimmbürgerinnen und Stimmbürger von Oetwil an der Limmat haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Oetwil an der Limmat hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>63,7 Prozent der Stimmbürgerinnen und Stimmbürger von Schlieren haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Schlieren hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Uitikon hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 50,8 Prozent abgelehnt. Uitikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Unterengstringen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 67,8 Prozent angenommen. Unterengstringen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Urdorf: 65,1 Prozent haben die Vorlage abgelehnt. Urdorf hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>77,8 Prozent der Stimmbürgerinnen und Stimmbürger von Weiningen ZH haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Weiningen ZH hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>60,9 Prozent der Stimmbürgerinnen und Stimmbürger von Zürich haben der Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" zugestimmt. Zürich hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 57,6 Prozent Ja hat sich Stammheim für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Stammheim hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wädenswil hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 88,2 Prozent abgelehnt. Wädenswil hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Sozialhilfegesetzes für die "klare rechtliche Grundlage für Sozialdetektive" in Elgg: 72,1 Prozent haben die Vorlage abgelehnt. Elgg hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" in Horgen. 52,3 Prozent haben sie verworfen. Horgen hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Illnau-Effretikon hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 61,2 Prozent abgelehnt. Illnau-Effretikon hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 65,5 Prozent Ja hat sich Bauma für die Änderung des Sozialhilfegeetzes für eine "klare rechtliche Grundlage für Sozialdetektive" ausgesprochen. Bauma hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wiesendangen hat die Änderung des Sozialhilfegesetzes für eine "klare rechtliche Grundlage für Sozialdetektive" mit 67,7 Prozent angenommen. Wiesendangen hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>NA Die letzten vier würde ich weglassen</t>
   </si>
   <si>
     <t>NA NA</t>
@@ -2323,10 +2812,10 @@
         <v>683</v>
       </c>
       <c r="AH2" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI2" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ2" t="n">
         <v>70.33898305084746</v>
@@ -2430,13 +2919,13 @@
         <v>680</v>
       </c>
       <c r="AG3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AH3" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI3" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ3" t="n">
         <v>99.97992773986351</v>
@@ -2540,13 +3029,13 @@
         <v>679</v>
       </c>
       <c r="AG4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AH4" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI4" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ4" t="n">
         <v>61.30666320301338</v>
@@ -2650,13 +3139,13 @@
         <v>679</v>
       </c>
       <c r="AG5" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AH5" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI5" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ5" t="n">
         <v>59.53060860253436</v>
@@ -2760,13 +3249,13 @@
         <v>681</v>
       </c>
       <c r="AG6" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="AH6" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI6" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ6" t="n">
         <v>15.094983505858265</v>
@@ -2870,13 +3359,13 @@
         <v>679</v>
       </c>
       <c r="AG7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AH7" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI7" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ7" t="n">
         <v>98.41576974241141</v>
@@ -2980,13 +3469,13 @@
         <v>681</v>
       </c>
       <c r="AG8" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="AH8" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI8" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ8" t="n">
         <v>46.474467940436526</v>
@@ -3090,13 +3579,13 @@
         <v>681</v>
       </c>
       <c r="AG9" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="AH9" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI9" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ9" t="n">
         <v>40.090820629257216</v>
@@ -3200,13 +3689,13 @@
         <v>681</v>
       </c>
       <c r="AG10" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="AH10" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI10" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ10" t="n">
         <v>32.02202989771833</v>
@@ -3310,13 +3799,13 @@
         <v>681</v>
       </c>
       <c r="AG11" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="AH11" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI11" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ11" t="n">
         <v>29.126436781609197</v>
@@ -3420,13 +3909,13 @@
         <v>679</v>
       </c>
       <c r="AG12" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="AH12" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI12" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ12" t="n">
         <v>65.67675613934894</v>
@@ -3530,13 +4019,13 @@
         <v>681</v>
       </c>
       <c r="AG13" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="AH13" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI13" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ13" t="n">
         <v>21.10569105691057</v>
@@ -3640,13 +4129,13 @@
         <v>679</v>
       </c>
       <c r="AG14" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="AH14" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI14" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ14" t="n">
         <v>76.94508788663306</v>
@@ -3750,13 +4239,13 @@
         <v>679</v>
       </c>
       <c r="AG15" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="AH15" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI15" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ15" t="n">
         <v>52.31686214189579</v>
@@ -3860,13 +4349,13 @@
         <v>681</v>
       </c>
       <c r="AG16" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="AH16" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI16" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ16" t="n">
         <v>7.485380116959064</v>
@@ -3970,13 +4459,13 @@
         <v>679</v>
       </c>
       <c r="AG17" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="AH17" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI17" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ17" t="n">
         <v>69.21287320666926</v>
@@ -4080,13 +4569,13 @@
         <v>679</v>
       </c>
       <c r="AG18" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="AH18" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI18" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ18" t="n">
         <v>59.40060219872558</v>
@@ -4190,13 +4679,13 @@
         <v>681</v>
       </c>
       <c r="AG19" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="AH19" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI19" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ19" t="n">
         <v>28.498402555910545</v>
@@ -4300,13 +4789,13 @@
         <v>681</v>
       </c>
       <c r="AG20" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="AH20" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI20" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ20" t="n">
         <v>31.574833919499806</v>
@@ -4410,13 +4899,13 @@
         <v>681</v>
       </c>
       <c r="AG21" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="AH21" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI21" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ21" t="n">
         <v>27.204826199367997</v>
@@ -4520,13 +5009,13 @@
         <v>679</v>
       </c>
       <c r="AG22" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="AH22" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI22" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ22" t="n">
         <v>58.8267847260653</v>
@@ -4630,13 +5119,13 @@
         <v>681</v>
       </c>
       <c r="AG23" t="s">
-        <v>683</v>
+        <v>704</v>
       </c>
       <c r="AH23" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI23" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ23" t="n">
         <v>49.14468752129762</v>
@@ -4740,13 +5229,13 @@
         <v>679</v>
       </c>
       <c r="AG24" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="AH24" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI24" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ24" t="n">
         <v>80.30415983301029</v>
@@ -4850,13 +5339,13 @@
         <v>681</v>
       </c>
       <c r="AG25" t="s">
-        <v>683</v>
+        <v>706</v>
       </c>
       <c r="AH25" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI25" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ25" t="n">
         <v>46.18233618233618</v>
@@ -4960,13 +5449,13 @@
         <v>679</v>
       </c>
       <c r="AG26" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="AH26" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI26" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ26" t="n">
         <v>66.12088752869165</v>
@@ -5070,13 +5559,13 @@
         <v>681</v>
       </c>
       <c r="AG27" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="AH27" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI27" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ27" t="n">
         <v>35.641325536062375</v>
@@ -5180,13 +5669,13 @@
         <v>681</v>
       </c>
       <c r="AG28" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="AH28" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI28" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ28" t="n">
         <v>38.98768809849521</v>
@@ -5290,13 +5779,13 @@
         <v>681</v>
       </c>
       <c r="AG29" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="AH29" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI29" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ29" t="n">
         <v>36.410848240046164</v>
@@ -5400,13 +5889,13 @@
         <v>679</v>
       </c>
       <c r="AG30" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="AH30" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI30" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ30" t="n">
         <v>64.59731543624162</v>
@@ -5510,13 +5999,13 @@
         <v>679</v>
       </c>
       <c r="AG31" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="AH31" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI31" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ31" t="n">
         <v>59.4378037567319</v>
@@ -5620,13 +6109,13 @@
         <v>679</v>
       </c>
       <c r="AG32" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="AH32" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI32" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ32" t="n">
         <v>78.50467289719626</v>
@@ -5730,13 +6219,13 @@
         <v>681</v>
       </c>
       <c r="AG33" t="s">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="AH33" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI33" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ33" t="n">
         <v>14.038785834738617</v>
@@ -5840,13 +6329,13 @@
         <v>679</v>
       </c>
       <c r="AG34" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="AH34" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI34" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ34" t="n">
         <v>75.35104937339574</v>
@@ -5950,13 +6439,13 @@
         <v>679</v>
       </c>
       <c r="AG35" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="AH35" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI35" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ35" t="n">
         <v>87.02508960573476</v>
@@ -6060,13 +6549,13 @@
         <v>679</v>
       </c>
       <c r="AG36" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="AH36" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI36" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ36" t="n">
         <v>60.31628366691376</v>
@@ -6170,13 +6659,13 @@
         <v>679</v>
       </c>
       <c r="AG37" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="AH37" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI37" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ37" t="n">
         <v>61.036679112672964</v>
@@ -6280,13 +6769,13 @@
         <v>681</v>
       </c>
       <c r="AG38" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="AH38" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI38" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ38" t="n">
         <v>41.430757459831675</v>
@@ -6390,13 +6879,13 @@
         <v>679</v>
       </c>
       <c r="AG39" t="s">
-        <v>683</v>
+        <v>720</v>
       </c>
       <c r="AH39" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI39" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ39" t="n">
         <v>67.32460845312164</v>
@@ -6500,13 +6989,13 @@
         <v>681</v>
       </c>
       <c r="AG40" t="s">
-        <v>683</v>
+        <v>721</v>
       </c>
       <c r="AH40" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI40" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ40" t="n">
         <v>37.876081879379036</v>
@@ -6610,13 +7099,13 @@
         <v>679</v>
       </c>
       <c r="AG41" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="AH41" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI41" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ41" t="n">
         <v>52.13903743315508</v>
@@ -6720,13 +7209,13 @@
         <v>681</v>
       </c>
       <c r="AG42" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="AH42" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI42" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ42" t="n">
         <v>29.823973176865046</v>
@@ -6830,13 +7319,13 @@
         <v>681</v>
       </c>
       <c r="AG43" t="s">
-        <v>683</v>
+        <v>724</v>
       </c>
       <c r="AH43" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI43" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ43" t="n">
         <v>48.65067466266866</v>
@@ -6940,13 +7429,13 @@
         <v>679</v>
       </c>
       <c r="AG44" t="s">
-        <v>683</v>
+        <v>725</v>
       </c>
       <c r="AH44" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI44" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ44" t="n">
         <v>67.41573033707866</v>
@@ -7050,13 +7539,13 @@
         <v>679</v>
       </c>
       <c r="AG45" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="AH45" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI45" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ45" t="n">
         <v>71.85604528912252</v>
@@ -7160,13 +7649,13 @@
         <v>679</v>
       </c>
       <c r="AG46" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="AH46" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI46" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ46" t="n">
         <v>75.77125658389767</v>
@@ -7270,13 +7759,13 @@
         <v>679</v>
       </c>
       <c r="AG47" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="AH47" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI47" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ47" t="n">
         <v>64.40835884466924</v>
@@ -7380,13 +7869,13 @@
         <v>681</v>
       </c>
       <c r="AG48" t="s">
-        <v>683</v>
+        <v>729</v>
       </c>
       <c r="AH48" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI48" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ48" t="n">
         <v>49.439061703212644</v>
@@ -7490,13 +7979,13 @@
         <v>681</v>
       </c>
       <c r="AG49" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="AH49" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI49" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ49" t="n">
         <v>41.87972632337054</v>
@@ -7600,13 +8089,13 @@
         <v>681</v>
       </c>
       <c r="AG50" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="AH50" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI50" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ50" t="n">
         <v>14.937646846195554</v>
@@ -7710,13 +8199,13 @@
         <v>681</v>
       </c>
       <c r="AG51" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="AH51" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI51" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ51" t="n">
         <v>6.8922305764411025</v>
@@ -7820,13 +8309,13 @@
         <v>679</v>
       </c>
       <c r="AG52" t="s">
-        <v>683</v>
+        <v>733</v>
       </c>
       <c r="AH52" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI52" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ52" t="n">
         <v>59.42570090285792</v>
@@ -7930,13 +8419,13 @@
         <v>681</v>
       </c>
       <c r="AG53" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="AH53" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI53" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ53" t="n">
         <v>38.88624464540695</v>
@@ -8040,13 +8529,13 @@
         <v>681</v>
       </c>
       <c r="AG54" t="s">
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="AH54" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI54" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ54" t="n">
         <v>19.787390800968318</v>
@@ -8150,13 +8639,13 @@
         <v>681</v>
       </c>
       <c r="AG55" t="s">
-        <v>683</v>
+        <v>736</v>
       </c>
       <c r="AH55" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI55" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ55" t="n">
         <v>27.35778753001573</v>
@@ -8260,13 +8749,13 @@
         <v>679</v>
       </c>
       <c r="AG56" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="AH56" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI56" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ56" t="n">
         <v>66.33211678832117</v>
@@ -8370,13 +8859,13 @@
         <v>679</v>
       </c>
       <c r="AG57" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="AH57" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI57" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ57" t="n">
         <v>74.88175675675676</v>
@@ -8480,13 +8969,13 @@
         <v>681</v>
       </c>
       <c r="AG58" t="s">
-        <v>683</v>
+        <v>739</v>
       </c>
       <c r="AH58" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI58" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ58" t="n">
         <v>40.74074074074074</v>
@@ -8590,13 +9079,13 @@
         <v>681</v>
       </c>
       <c r="AG59" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="AH59" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI59" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ59" t="n">
         <v>30.72697622521672</v>
@@ -8700,13 +9189,13 @@
         <v>681</v>
       </c>
       <c r="AG60" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="AH60" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI60" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ60" t="n">
         <v>34.6583850931677</v>
@@ -8810,13 +9299,13 @@
         <v>681</v>
       </c>
       <c r="AG61" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
       <c r="AH61" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI61" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ61" t="n">
         <v>19.87825356842989</v>
@@ -8920,13 +9409,13 @@
         <v>681</v>
       </c>
       <c r="AG62" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
       <c r="AH62" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI62" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ62" t="n">
         <v>24.30984754841368</v>
@@ -9030,13 +9519,13 @@
         <v>679</v>
       </c>
       <c r="AG63" t="s">
-        <v>683</v>
+        <v>744</v>
       </c>
       <c r="AH63" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI63" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ63" t="n">
         <v>73.00884955752213</v>
@@ -9140,13 +9629,13 @@
         <v>679</v>
       </c>
       <c r="AG64" t="s">
-        <v>683</v>
+        <v>745</v>
       </c>
       <c r="AH64" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI64" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ64" t="n">
         <v>65.76648133439238</v>
@@ -9250,13 +9739,13 @@
         <v>681</v>
       </c>
       <c r="AG65" t="s">
-        <v>683</v>
+        <v>746</v>
       </c>
       <c r="AH65" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI65" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ65" t="n">
         <v>31.05047538069104</v>
@@ -9360,13 +9849,13 @@
         <v>681</v>
       </c>
       <c r="AG66" t="s">
-        <v>683</v>
+        <v>747</v>
       </c>
       <c r="AH66" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI66" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ66" t="n">
         <v>43.59040164249968</v>
@@ -9470,13 +9959,13 @@
         <v>679</v>
       </c>
       <c r="AG67" t="s">
-        <v>683</v>
+        <v>748</v>
       </c>
       <c r="AH67" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI67" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ67" t="n">
         <v>78.72748179379073</v>
@@ -9580,13 +10069,13 @@
         <v>679</v>
       </c>
       <c r="AG68" t="s">
-        <v>683</v>
+        <v>749</v>
       </c>
       <c r="AH68" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI68" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ68" t="n">
         <v>57.78285062063062</v>
@@ -9690,13 +10179,13 @@
         <v>679</v>
       </c>
       <c r="AG69" t="s">
-        <v>683</v>
+        <v>750</v>
       </c>
       <c r="AH69" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI69" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ69" t="n">
         <v>72.62391996361983</v>
@@ -9800,13 +10289,13 @@
         <v>681</v>
       </c>
       <c r="AG70" t="s">
-        <v>683</v>
+        <v>751</v>
       </c>
       <c r="AH70" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI70" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ70" t="n">
         <v>27.75052557813595</v>
@@ -9910,13 +10399,13 @@
         <v>679</v>
       </c>
       <c r="AG71" t="s">
-        <v>683</v>
+        <v>752</v>
       </c>
       <c r="AH71" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI71" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ71" t="n">
         <v>70.70903912456903</v>
@@ -10020,13 +10509,13 @@
         <v>679</v>
       </c>
       <c r="AG72" t="s">
-        <v>683</v>
+        <v>753</v>
       </c>
       <c r="AH72" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI72" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ72" t="n">
         <v>54.54278728606357</v>
@@ -10130,13 +10619,13 @@
         <v>679</v>
       </c>
       <c r="AG73" t="s">
-        <v>683</v>
+        <v>754</v>
       </c>
       <c r="AH73" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI73" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ73" t="n">
         <v>70.64802078557237</v>
@@ -10240,13 +10729,13 @@
         <v>681</v>
       </c>
       <c r="AG74" t="s">
-        <v>683</v>
+        <v>755</v>
       </c>
       <c r="AH74" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI74" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ74" t="n">
         <v>40.99683446092732</v>
@@ -10350,13 +10839,13 @@
         <v>681</v>
       </c>
       <c r="AG75" t="s">
-        <v>683</v>
+        <v>756</v>
       </c>
       <c r="AH75" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI75" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ75" t="n">
         <v>30.27349889971707</v>
@@ -10460,13 +10949,13 @@
         <v>681</v>
       </c>
       <c r="AG76" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="AH76" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI76" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ76" t="n">
         <v>36.48984363583224</v>
@@ -10570,13 +11059,13 @@
         <v>681</v>
       </c>
       <c r="AG77" t="s">
-        <v>683</v>
+        <v>758</v>
       </c>
       <c r="AH77" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI77" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ77" t="n">
         <v>24.49002095049068</v>
@@ -10680,13 +11169,13 @@
         <v>681</v>
       </c>
       <c r="AG78" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="AH78" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI78" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ78" t="n">
         <v>20.825515947467167</v>
@@ -10790,13 +11279,13 @@
         <v>679</v>
       </c>
       <c r="AG79" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="AH79" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI79" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ79" t="n">
         <v>74.37948717948719</v>
@@ -10900,13 +11389,13 @@
         <v>681</v>
       </c>
       <c r="AG80" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="AH80" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI80" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ80" t="n">
         <v>26.516888277548524</v>
@@ -11010,13 +11499,13 @@
         <v>681</v>
       </c>
       <c r="AG81" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="AH81" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI81" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ81" t="n">
         <v>46.49926686217009</v>
@@ -11120,13 +11609,13 @@
         <v>681</v>
       </c>
       <c r="AG82" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
       <c r="AH82" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI82" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ82" t="n">
         <v>31.17367004760919</v>
@@ -11230,13 +11719,13 @@
         <v>681</v>
       </c>
       <c r="AG83" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="AH83" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI83" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ83" t="n">
         <v>46.65352778872684</v>
@@ -11340,13 +11829,13 @@
         <v>679</v>
       </c>
       <c r="AG84" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="AH84" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI84" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ84" t="n">
         <v>64.70383759733036</v>
@@ -11450,13 +11939,13 @@
         <v>681</v>
       </c>
       <c r="AG85" t="s">
-        <v>683</v>
+        <v>766</v>
       </c>
       <c r="AH85" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI85" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ85" t="n">
         <v>17.227782832878376</v>
@@ -11560,13 +12049,13 @@
         <v>679</v>
       </c>
       <c r="AG86" t="s">
-        <v>683</v>
+        <v>767</v>
       </c>
       <c r="AH86" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI86" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ86" t="n">
         <v>89.11651728553137</v>
@@ -11670,13 +12159,13 @@
         <v>679</v>
       </c>
       <c r="AG87" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="AH87" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI87" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ87" t="n">
         <v>81.5178922532442</v>
@@ -11780,13 +12269,13 @@
         <v>679</v>
       </c>
       <c r="AG88" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="AH88" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI88" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ88" t="n">
         <v>54.33829138062548</v>
@@ -11890,13 +12379,13 @@
         <v>679</v>
       </c>
       <c r="AG89" t="s">
-        <v>683</v>
+        <v>770</v>
       </c>
       <c r="AH89" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI89" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ89" t="n">
         <v>57.69138468922486</v>
@@ -12000,13 +12489,13 @@
         <v>681</v>
       </c>
       <c r="AG90" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="AH90" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI90" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ90" t="n">
         <v>28.333862938248068</v>
@@ -12110,13 +12599,13 @@
         <v>681</v>
       </c>
       <c r="AG91" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="AH91" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI91" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ91" t="n">
         <v>43.558282208588956</v>
@@ -12220,13 +12709,13 @@
         <v>681</v>
       </c>
       <c r="AG92" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="AH92" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI92" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ92" t="n">
         <v>41.359790614157895</v>
@@ -12330,13 +12819,13 @@
         <v>681</v>
       </c>
       <c r="AG93" t="s">
-        <v>683</v>
+        <v>774</v>
       </c>
       <c r="AH93" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI93" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ93" t="n">
         <v>37.22684034621647</v>
@@ -12440,13 +12929,13 @@
         <v>679</v>
       </c>
       <c r="AG94" t="s">
-        <v>683</v>
+        <v>775</v>
       </c>
       <c r="AH94" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI94" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ94" t="n">
         <v>56.879677605066206</v>
@@ -12550,13 +13039,13 @@
         <v>679</v>
       </c>
       <c r="AG95" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
       <c r="AH95" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI95" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ95" t="n">
         <v>75.05609208857672</v>
@@ -12660,13 +13149,13 @@
         <v>679</v>
       </c>
       <c r="AG96" t="s">
-        <v>683</v>
+        <v>777</v>
       </c>
       <c r="AH96" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI96" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ96" t="n">
         <v>62.51811769253068</v>
@@ -12770,13 +13259,13 @@
         <v>681</v>
       </c>
       <c r="AG97" t="s">
-        <v>683</v>
+        <v>778</v>
       </c>
       <c r="AH97" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI97" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ97" t="n">
         <v>6.395057605610286</v>
@@ -12880,13 +13369,13 @@
         <v>679</v>
       </c>
       <c r="AG98" t="s">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="AH98" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI98" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ98" t="n">
         <v>77.05359816348937</v>
@@ -12990,13 +13479,13 @@
         <v>679</v>
       </c>
       <c r="AG99" t="s">
-        <v>683</v>
+        <v>780</v>
       </c>
       <c r="AH99" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI99" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ99" t="n">
         <v>62.857142857142854</v>
@@ -13100,13 +13589,13 @@
         <v>679</v>
       </c>
       <c r="AG100" t="s">
-        <v>683</v>
+        <v>781</v>
       </c>
       <c r="AH100" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI100" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ100" t="n">
         <v>99.12878029240937</v>
@@ -13210,13 +13699,13 @@
         <v>679</v>
       </c>
       <c r="AG101" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="AH101" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI101" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ101" t="n">
         <v>57.368173258003765</v>
@@ -13320,13 +13809,13 @@
         <v>681</v>
       </c>
       <c r="AG102" t="s">
-        <v>683</v>
+        <v>783</v>
       </c>
       <c r="AH102" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI102" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ102" t="n">
         <v>28.940976439154724</v>
@@ -13430,13 +13919,13 @@
         <v>681</v>
       </c>
       <c r="AG103" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="AH103" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI103" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ103" t="n">
         <v>41.10372340425532</v>
@@ -13540,13 +14029,13 @@
         <v>681</v>
       </c>
       <c r="AG104" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="AH104" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI104" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ104" t="n">
         <v>7.897652865921225</v>
@@ -13650,13 +14139,13 @@
         <v>679</v>
       </c>
       <c r="AG105" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="AH105" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI105" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ105" t="n">
         <v>66.79712157555865</v>
@@ -13760,13 +14249,13 @@
         <v>679</v>
       </c>
       <c r="AG106" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
       <c r="AH106" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI106" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ106" t="n">
         <v>84.53825857519789</v>
@@ -13870,13 +14359,13 @@
         <v>681</v>
       </c>
       <c r="AG107" t="s">
-        <v>683</v>
+        <v>788</v>
       </c>
       <c r="AH107" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI107" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ107" t="n">
         <v>42.85019455252918</v>
@@ -13980,13 +14469,13 @@
         <v>681</v>
       </c>
       <c r="AG108" t="s">
-        <v>683</v>
+        <v>789</v>
       </c>
       <c r="AH108" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI108" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ108" t="n">
         <v>24.472049689440993</v>
@@ -14090,13 +14579,13 @@
         <v>679</v>
       </c>
       <c r="AG109" t="s">
-        <v>683</v>
+        <v>790</v>
       </c>
       <c r="AH109" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI109" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ109" t="n">
         <v>68.4854186265287</v>
@@ -14200,13 +14689,13 @@
         <v>681</v>
       </c>
       <c r="AG110" t="s">
-        <v>683</v>
+        <v>791</v>
       </c>
       <c r="AH110" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI110" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ110" t="n">
         <v>45.799249350399386</v>
@@ -14310,13 +14799,13 @@
         <v>681</v>
       </c>
       <c r="AG111" t="s">
-        <v>683</v>
+        <v>792</v>
       </c>
       <c r="AH111" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI111" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ111" t="n">
         <v>46.32903066677629</v>
@@ -14420,13 +14909,13 @@
         <v>681</v>
       </c>
       <c r="AG112" t="s">
-        <v>683</v>
+        <v>793</v>
       </c>
       <c r="AH112" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI112" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ112" t="n">
         <v>27.42194132628997</v>
@@ -14530,13 +15019,13 @@
         <v>681</v>
       </c>
       <c r="AG113" t="s">
-        <v>683</v>
+        <v>794</v>
       </c>
       <c r="AH113" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI113" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ113" t="n">
         <v>14.256410256410257</v>
@@ -14640,13 +15129,13 @@
         <v>679</v>
       </c>
       <c r="AG114" t="s">
-        <v>683</v>
+        <v>795</v>
       </c>
       <c r="AH114" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI114" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ114" t="n">
         <v>56.07817399547874</v>
@@ -14750,13 +15239,13 @@
         <v>679</v>
       </c>
       <c r="AG115" t="s">
-        <v>683</v>
+        <v>796</v>
       </c>
       <c r="AH115" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI115" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ115" t="n">
         <v>91.13005414122797</v>
@@ -14860,13 +15349,13 @@
         <v>681</v>
       </c>
       <c r="AG116" t="s">
-        <v>683</v>
+        <v>797</v>
       </c>
       <c r="AH116" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI116" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ116" t="n">
         <v>3.7915948561580275</v>
@@ -14970,13 +15459,13 @@
         <v>679</v>
       </c>
       <c r="AG117" t="s">
-        <v>683</v>
+        <v>798</v>
       </c>
       <c r="AH117" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI117" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ117" t="n">
         <v>97.4886683817224</v>
@@ -15080,13 +15569,13 @@
         <v>679</v>
       </c>
       <c r="AG118" t="s">
-        <v>683</v>
+        <v>799</v>
       </c>
       <c r="AH118" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI118" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ118" t="n">
         <v>90.94611232124254</v>
@@ -15190,13 +15679,13 @@
         <v>681</v>
       </c>
       <c r="AG119" t="s">
-        <v>683</v>
+        <v>800</v>
       </c>
       <c r="AH119" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI119" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ119" t="n">
         <v>23.0467356403853</v>
@@ -15300,13 +15789,13 @@
         <v>681</v>
       </c>
       <c r="AG120" t="s">
-        <v>683</v>
+        <v>801</v>
       </c>
       <c r="AH120" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI120" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ120" t="n">
         <v>40.16512328461452</v>
@@ -15410,13 +15899,13 @@
         <v>681</v>
       </c>
       <c r="AG121" t="s">
-        <v>683</v>
+        <v>802</v>
       </c>
       <c r="AH121" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI121" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ121" t="n">
         <v>13.983562968334542</v>
@@ -15520,13 +16009,13 @@
         <v>681</v>
       </c>
       <c r="AG122" t="s">
-        <v>683</v>
+        <v>803</v>
       </c>
       <c r="AH122" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI122" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ122" t="n">
         <v>40.3871323276159</v>
@@ -15630,13 +16119,13 @@
         <v>681</v>
       </c>
       <c r="AG123" t="s">
-        <v>683</v>
+        <v>804</v>
       </c>
       <c r="AH123" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI123" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ123" t="n">
         <v>24.88496643282794</v>
@@ -15740,13 +16229,13 @@
         <v>681</v>
       </c>
       <c r="AG124" t="s">
-        <v>683</v>
+        <v>805</v>
       </c>
       <c r="AH124" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI124" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ124" t="n">
         <v>41.51299245599329</v>
@@ -15850,13 +16339,13 @@
         <v>681</v>
       </c>
       <c r="AG125" t="s">
-        <v>683</v>
+        <v>806</v>
       </c>
       <c r="AH125" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI125" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ125" t="n">
         <v>23.157588115351004</v>
@@ -15960,13 +16449,13 @@
         <v>679</v>
       </c>
       <c r="AG126" t="s">
-        <v>683</v>
+        <v>807</v>
       </c>
       <c r="AH126" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI126" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ126" t="n">
         <v>75.38634205300872</v>
@@ -16070,13 +16559,13 @@
         <v>681</v>
       </c>
       <c r="AG127" t="s">
-        <v>683</v>
+        <v>808</v>
       </c>
       <c r="AH127" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI127" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ127" t="n">
         <v>24.76627271123655</v>
@@ -16180,13 +16669,13 @@
         <v>679</v>
       </c>
       <c r="AG128" t="s">
-        <v>683</v>
+        <v>809</v>
       </c>
       <c r="AH128" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI128" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ128" t="n">
         <v>72.68941584731058</v>
@@ -16290,13 +16779,13 @@
         <v>679</v>
       </c>
       <c r="AG129" t="s">
-        <v>683</v>
+        <v>810</v>
       </c>
       <c r="AH129" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI129" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ129" t="n">
         <v>75.69792412312097</v>
@@ -16400,13 +16889,13 @@
         <v>681</v>
       </c>
       <c r="AG130" t="s">
-        <v>683</v>
+        <v>811</v>
       </c>
       <c r="AH130" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI130" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ130" t="n">
         <v>36.86973119134723</v>
@@ -16510,13 +16999,13 @@
         <v>681</v>
       </c>
       <c r="AG131" t="s">
-        <v>683</v>
+        <v>812</v>
       </c>
       <c r="AH131" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI131" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ131" t="n">
         <v>49.4120470362371</v>
@@ -16620,13 +17109,13 @@
         <v>679</v>
       </c>
       <c r="AG132" t="s">
-        <v>683</v>
+        <v>813</v>
       </c>
       <c r="AH132" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI132" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ132" t="n">
         <v>63.450591154575974</v>
@@ -16730,13 +17219,13 @@
         <v>681</v>
       </c>
       <c r="AG133" t="s">
-        <v>683</v>
+        <v>814</v>
       </c>
       <c r="AH133" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI133" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ133" t="n">
         <v>48.96229172756504</v>
@@ -16840,13 +17329,13 @@
         <v>681</v>
       </c>
       <c r="AG134" t="s">
-        <v>683</v>
+        <v>815</v>
       </c>
       <c r="AH134" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI134" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ134" t="n">
         <v>31.195112638411608</v>
@@ -16950,13 +17439,13 @@
         <v>681</v>
       </c>
       <c r="AG135" t="s">
-        <v>683</v>
+        <v>816</v>
       </c>
       <c r="AH135" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI135" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ135" t="n">
         <v>30.789387487717</v>
@@ -17060,13 +17549,13 @@
         <v>679</v>
       </c>
       <c r="AG136" t="s">
-        <v>683</v>
+        <v>817</v>
       </c>
       <c r="AH136" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI136" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ136" t="n">
         <v>74.25373134328358</v>
@@ -17170,13 +17659,13 @@
         <v>681</v>
       </c>
       <c r="AG137" t="s">
-        <v>683</v>
+        <v>818</v>
       </c>
       <c r="AH137" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI137" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ137" t="n">
         <v>3.858858858858859</v>
@@ -17280,13 +17769,13 @@
         <v>682</v>
       </c>
       <c r="AG138" t="s">
-        <v>683</v>
+        <v>819</v>
       </c>
       <c r="AH138" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI138" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ138" t="n">
         <v>0.07215007215007214</v>
@@ -17390,13 +17879,13 @@
         <v>681</v>
       </c>
       <c r="AG139" t="s">
-        <v>683</v>
+        <v>820</v>
       </c>
       <c r="AH139" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI139" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ139" t="n">
         <v>35.374428288620386</v>
@@ -17500,13 +17989,13 @@
         <v>681</v>
       </c>
       <c r="AG140" t="s">
-        <v>683</v>
+        <v>821</v>
       </c>
       <c r="AH140" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI140" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ140" t="n">
         <v>45.50297324083251</v>
@@ -17610,13 +18099,13 @@
         <v>681</v>
       </c>
       <c r="AG141" t="s">
-        <v>683</v>
+        <v>822</v>
       </c>
       <c r="AH141" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI141" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ141" t="n">
         <v>6.147651006711409</v>
@@ -17720,13 +18209,13 @@
         <v>679</v>
       </c>
       <c r="AG142" t="s">
-        <v>683</v>
+        <v>823</v>
       </c>
       <c r="AH142" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI142" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ142" t="n">
         <v>90.10416666666667</v>
@@ -17830,13 +18319,13 @@
         <v>679</v>
       </c>
       <c r="AG143" t="s">
-        <v>683</v>
+        <v>824</v>
       </c>
       <c r="AH143" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI143" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ143" t="n">
         <v>51.274787535410766</v>
@@ -17940,13 +18429,13 @@
         <v>681</v>
       </c>
       <c r="AG144" t="s">
-        <v>683</v>
+        <v>825</v>
       </c>
       <c r="AH144" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI144" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ144" t="n">
         <v>38.083803577860486</v>
@@ -18050,13 +18539,13 @@
         <v>679</v>
       </c>
       <c r="AG145" t="s">
-        <v>683</v>
+        <v>826</v>
       </c>
       <c r="AH145" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI145" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ145" t="n">
         <v>79.8780487804878</v>
@@ -18160,13 +18649,13 @@
         <v>681</v>
       </c>
       <c r="AG146" t="s">
-        <v>683</v>
+        <v>827</v>
       </c>
       <c r="AH146" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI146" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ146" t="n">
         <v>44.97607655502392</v>
@@ -18270,13 +18759,13 @@
         <v>681</v>
       </c>
       <c r="AG147" t="s">
-        <v>683</v>
+        <v>828</v>
       </c>
       <c r="AH147" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI147" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ147" t="n">
         <v>31.61685658998065</v>
@@ -18380,13 +18869,13 @@
         <v>679</v>
       </c>
       <c r="AG148" t="s">
-        <v>683</v>
+        <v>829</v>
       </c>
       <c r="AH148" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI148" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ148" t="n">
         <v>81.73177083333333</v>
@@ -18490,13 +18979,13 @@
         <v>679</v>
       </c>
       <c r="AG149" t="s">
-        <v>683</v>
+        <v>830</v>
       </c>
       <c r="AH149" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI149" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ149" t="n">
         <v>94.85179407176287</v>
@@ -18600,13 +19089,13 @@
         <v>679</v>
       </c>
       <c r="AG150" t="s">
-        <v>683</v>
+        <v>831</v>
       </c>
       <c r="AH150" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI150" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ150" t="n">
         <v>56.56857301499167</v>
@@ -18710,13 +19199,13 @@
         <v>679</v>
       </c>
       <c r="AG151" t="s">
-        <v>683</v>
+        <v>832</v>
       </c>
       <c r="AH151" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI151" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ151" t="n">
         <v>63.74332926123577</v>
@@ -18820,13 +19309,13 @@
         <v>681</v>
       </c>
       <c r="AG152" t="s">
-        <v>683</v>
+        <v>833</v>
       </c>
       <c r="AH152" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI152" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ152" t="n">
         <v>49.18247220405494</v>
@@ -18930,13 +19419,13 @@
         <v>679</v>
       </c>
       <c r="AG153" t="s">
-        <v>683</v>
+        <v>834</v>
       </c>
       <c r="AH153" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI153" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ153" t="n">
         <v>67.83589101158785</v>
@@ -19040,13 +19529,13 @@
         <v>681</v>
       </c>
       <c r="AG154" t="s">
-        <v>683</v>
+        <v>835</v>
       </c>
       <c r="AH154" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI154" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ154" t="n">
         <v>34.94797010112853</v>
@@ -19150,13 +19639,13 @@
         <v>679</v>
       </c>
       <c r="AG155" t="s">
-        <v>683</v>
+        <v>836</v>
       </c>
       <c r="AH155" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI155" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ155" t="n">
         <v>77.75075118042639</v>
@@ -19260,13 +19749,13 @@
         <v>679</v>
       </c>
       <c r="AG156" t="s">
-        <v>683</v>
+        <v>837</v>
       </c>
       <c r="AH156" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI156" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ156" t="n">
         <v>60.894716544543</v>
@@ -19370,13 +19859,13 @@
         <v>679</v>
       </c>
       <c r="AG157" t="s">
-        <v>683</v>
+        <v>838</v>
       </c>
       <c r="AH157" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI157" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ157" t="n">
         <v>57.61941448382127</v>
@@ -19480,13 +19969,13 @@
         <v>681</v>
       </c>
       <c r="AG158" t="s">
-        <v>683</v>
+        <v>839</v>
       </c>
       <c r="AH158" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI158" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ158" t="n">
         <v>11.782094594594595</v>
@@ -19590,13 +20079,13 @@
         <v>681</v>
       </c>
       <c r="AG159" t="s">
-        <v>683</v>
+        <v>840</v>
       </c>
       <c r="AH159" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI159" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ159" t="n">
         <v>27.863390254060807</v>
@@ -19700,13 +20189,13 @@
         <v>681</v>
       </c>
       <c r="AG160" t="s">
-        <v>683</v>
+        <v>841</v>
       </c>
       <c r="AH160" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI160" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ160" t="n">
         <v>47.66215585627625</v>
@@ -19810,13 +20299,13 @@
         <v>681</v>
       </c>
       <c r="AG161" t="s">
-        <v>683</v>
+        <v>842</v>
       </c>
       <c r="AH161" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AI161" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ161" t="n">
         <v>38.75340430799703</v>
@@ -19920,13 +20409,13 @@
         <v>679</v>
       </c>
       <c r="AG162" t="s">
-        <v>683</v>
+        <v>843</v>
       </c>
       <c r="AH162" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI162" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ162" t="n">
         <v>65.45768566493955</v>
@@ -20030,13 +20519,13 @@
         <v>679</v>
       </c>
       <c r="AG163" t="s">
-        <v>683</v>
+        <v>844</v>
       </c>
       <c r="AH163" t="s">
-        <v>683</v>
+        <v>845</v>
       </c>
       <c r="AI163" t="s">
-        <v>683</v>
+        <v>846</v>
       </c>
       <c r="AJ163" t="n">
         <v>67.66746411483254</v>
